--- a/biology/Histoire de la zoologie et de la botanique/Townend_Glover/Townend_Glover.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Townend_Glover/Townend_Glover.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Townend Glover est un entomologiste et un illustrateur américain, né le 20 février 1813 à Rio de Janeiro et mort le 7 septembre 1883 à Baltimore.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils d’Henry Glover, un homme d’affaires britannique installé au Brésil, et de Mary Townend, originaire du Yorkshire. Le jeune Townend perd sa mère alors qu’il n’avait que six semaines et son père à six ans. Il est alors élevé par grand-père paternel et une tante à Leeds. Il y fait ses études dans une école privée et est envoyé en apprentissage chez un marchand de laine à douze ans. Il quitte cette fonction lorsqu’il touche l’héritage de son père à vingt-et-un ans.
 Il part étudier l’art à Munich auprès de Mattenheimer, inspecteur de la Galerie d’art de Munich de 1834 à 1836. Après avoir travaillé peu de temps dans un studio de peinture en Grande-Bretagne, il part aux États-Unis d'Amérique en 1836 d’abord pour y peindre des scènes principalement de pêche et de chasse avant de décider d’y rester. Il voyage beaucoup durant cette époque.
@@ -545,7 +559,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Keir B. Sterling, Richard P. Harmond, George A. Cevasco &amp; Lorne F. Hammond (dir.) (1997). Biographical dictionary of American and Canadian naturalists and environmentalists. Greenwood Press (Westport) : xix + 937 p.
 Theo. L. Bissell (1960). History of entomology at the university of Maryland. Bulletin of the Entomological Society of America, 6 (3) : 80-85.</t>
